--- a/modules/orders/client/exports/templates/order-tmp.xlsx
+++ b/modules/orders/client/exports/templates/order-tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/MyProject/javascript/astena-mft-web/modules/orders/client/exports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C95525-39EA-8041-8320-1EB8B4D08281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696391A-FD88-5444-A93C-8787F58B8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{DDF618C3-8978-D942-9069-FDEBD1F80C04}"/>
   </bookViews>
@@ -50,37 +50,9 @@
     <t>住所</t>
   </si>
   <si>
-    <r>
-      <t>自治体</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
     <t>自治体名</t>
   </si>
   <si>
-    <r>
-      <t>導入施設</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
     <t>導入施設名</t>
   </si>
   <si>
@@ -94,13 +66,19 @@
   </si>
   <si>
     <t>寄付日付</t>
+  </si>
+  <si>
+    <t>自治体ID</t>
+  </si>
+  <si>
+    <t>導入施設ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,13 +90,16 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,11 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -496,45 +481,45 @@
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/modules/orders/client/exports/templates/order-tmp.xlsx
+++ b/modules/orders/client/exports/templates/order-tmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/MyProject/javascript/astena-mft-web/modules/orders/client/exports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696391A-FD88-5444-A93C-8787F58B8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926729F4-A3F0-1544-8473-E91D05067F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{DDF618C3-8978-D942-9069-FDEBD1F80C04}"/>
   </bookViews>
@@ -503,7 +503,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/modules/orders/client/exports/templates/order-tmp.xlsx
+++ b/modules/orders/client/exports/templates/order-tmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/MyProject/javascript/astena-mft-web/modules/orders/client/exports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926729F4-A3F0-1544-8473-E91D05067F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD222C-395F-D644-AD16-6B4C9BE3853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{DDF618C3-8978-D942-9069-FDEBD1F80C04}"/>
   </bookViews>
@@ -78,20 +78,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -137,15 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,44 +471,44 @@
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/modules/orders/client/exports/templates/order-tmp.xlsx
+++ b/modules/orders/client/exports/templates/order-tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/MyProject/javascript/astena-mft-web/modules/orders/client/exports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD222C-395F-D644-AD16-6B4C9BE3853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF5D19-BC45-334B-85D7-3C8E593E392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{DDF618C3-8978-D942-9069-FDEBD1F80C04}"/>
   </bookViews>
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,10 +138,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,44 +477,44 @@
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
